--- a/data/code_list.xlsx
+++ b/data/code_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF261B3-3D9B-49FD-9375-BA2E0F28F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317798C-CACA-4600-BC84-EA42D5E5EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D43294D-F6FE-49E9-924F-47919B9E5983}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2D43294D-F6FE-49E9-924F-47919B9E5983}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1155,9 +1153,6 @@
     <t>FES</t>
   </si>
   <si>
-    <t>Mooring Winch -Center</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
@@ -1228,6 +1223,9 @@
   </si>
   <si>
     <t>machinery</t>
+  </si>
+  <si>
+    <t>Mooring Winch - Center</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14AA48B-5E3A-4F8E-BD81-9DC4112F8845}">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,10 +3111,10 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B190" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3122,7 @@
         <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,23 +3130,23 @@
         <v>207</v>
       </c>
       <c r="B192" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B193" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B194" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,31 +3154,31 @@
         <v>336</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B197" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,28 +3186,28 @@
         <v>102</v>
       </c>
       <c r="B199" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B200" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B202" t="s">
         <v>361</v>
@@ -3217,18 +3215,18 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B203" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B204" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/data/code_list.xlsx
+++ b/data/code_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317798C-CACA-4600-BC84-EA42D5E5EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B63A97-9291-4C39-B614-83C3DA8BE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2D43294D-F6FE-49E9-924F-47919B9E5983}"/>
   </bookViews>
@@ -1117,12 +1117,6 @@
     <t>CBB</t>
   </si>
   <si>
-    <t>BWMS</t>
-  </si>
-  <si>
-    <t>BWT</t>
-  </si>
-  <si>
     <t>Pilot Ladders</t>
   </si>
   <si>
@@ -1210,22 +1204,28 @@
     <t>GAC</t>
   </si>
   <si>
+    <t>Rescueboat</t>
+  </si>
+  <si>
+    <t>RBT</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>machinery</t>
+  </si>
+  <si>
+    <t>Mooring Winch - Center</t>
+  </si>
+  <si>
+    <t>Ballast Water Management System</t>
+  </si>
+  <si>
+    <t>Ballast Water Treatment System</t>
+  </si>
+  <si>
     <t>BWM</t>
-  </si>
-  <si>
-    <t>Rescueboat</t>
-  </si>
-  <si>
-    <t>RBT</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>machinery</t>
-  </si>
-  <si>
-    <t>Mooring Winch - Center</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14AA48B-5E3A-4F8E-BD81-9DC4112F8845}">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,34 +3103,34 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>373</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B191" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="B192" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B194" t="s">
         <v>378</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="B198" t="s">
         <v>385</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>102</v>
+        <v>387</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,34 +3199,34 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B204" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/data/code_list.xlsx
+++ b/data/code_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B63A97-9291-4C39-B614-83C3DA8BE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472FAB0-13EE-470C-B910-373A39ECD6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2D43294D-F6FE-49E9-924F-47919B9E5983}"/>
   </bookViews>
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14AA48B-5E3A-4F8E-BD81-9DC4112F8845}">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s">
         <v>268</v>

--- a/data/code_list.xlsx
+++ b/data/code_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472FAB0-13EE-470C-B910-373A39ECD6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546F7A9-607E-49A6-ABBB-BA4092F27AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2D43294D-F6FE-49E9-924F-47919B9E5983}"/>
+    <workbookView xWindow="-16320" yWindow="-6225" windowWidth="16440" windowHeight="28320" xr2:uid="{2D43294D-F6FE-49E9-924F-47919B9E5983}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,6 +1242,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1268,9 +1275,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1587,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14AA48B-5E3A-4F8E-BD81-9DC4112F8845}">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,74 +3135,74 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B192" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B195" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="B197" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>102</v>
+        <v>387</v>
       </c>
       <c r="B198" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B199" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B200" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,36 +3210,32 @@
         <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B202" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B203" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>392</v>
-      </c>
-      <c r="B204" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="A204" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
